--- a/ListMAC.xlsx
+++ b/ListMAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESP32_NOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF74E630-3940-4929-AC15-A6FA722B26E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3ABD1A-E9D2-4031-B78E-78C0CB22CF52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{CDA65AEF-01BB-4FD3-BC8F-82377E30BCE6}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>MACADDRESS</t>
   </si>
   <si>
-    <t>0xa0:0xdd:0x6c:0x0f:0xe2:0x78</t>
-  </si>
-  <si>
     <t>0xcc,0xdb,0xa7,0x32,0xa7,0x74</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>0xcc,0xdb,0xa7,0x32,0xc6,0xa4</t>
+  </si>
+  <si>
+    <t>0xa0,0xdd,0x6c,0x0f,0xe2,0x78</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="23.4">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="23.4">
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="23.4">
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="23.4">
